--- a/workfile/锐安项目文档/bi/模型er图.xlsx
+++ b/workfile/锐安项目文档/bi/模型er图.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="新版权限模型" sheetId="1" r:id="rId1"/>
-    <sheet name="损益表相关逻辑" sheetId="3" r:id="rId2"/>
-    <sheet name="人力资源原有模型" sheetId="4" r:id="rId3"/>
-    <sheet name="三表权限修改" sheetId="2" r:id="rId4"/>
+    <sheet name="工程售后" sheetId="5" r:id="rId2"/>
+    <sheet name="损益表相关逻辑" sheetId="3" r:id="rId3"/>
+    <sheet name="人力资源原有模型" sheetId="4" r:id="rId4"/>
+    <sheet name="三表权限修改" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -340,10 +340,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7918,7 +7918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="K9" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
@@ -7933,9 +7933,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
@@ -7968,11 +7981,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B31:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -8090,11 +8103,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A54" sqref="A54:N57"/>
     </sheetView>
   </sheetViews>
@@ -8104,70 +8117,70 @@
       <c r="K4" s="3"/>
     </row>
     <row r="54" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" ht="46.5" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
